--- a/src/main/resources/data/raw data/2023/강남구/총무과/업무추진비 공개(2023.12월)_부서 시책추진업무추진비.xlsx
+++ b/src/main/resources/data/raw data/2023/강남구/총무과/업무추진비 공개(2023.12월)_부서 시책추진업무추진비.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IDE\sts-4.23.1.RELEASE\work\FreeMeal\src\main\resources\Data\Raw Data\강남구\총무과\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\2024년 총무과\지출관련\시책업무추진비\홈페이지공개\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D136419E-83EC-43A5-A14C-DA4773E63A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="구청장" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">시책추진업무추진비!$A$4:$H$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">행정국장!$A$4:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="495">
   <si>
     <t>승인일</t>
   </si>
@@ -1670,7 +1669,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -1990,7 +1989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2123,6 +2122,36 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2156,6 +2185,9 @@
     <xf numFmtId="49" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2231,35 +2263,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="1"/>
+    <cellStyle name="쉼표 [0] 3" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2537,11 +2548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2557,29 +2568,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1"/>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -3466,12 +3477,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H37" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I64">
+  <autoFilter ref="A4:H37">
+    <sortState ref="A5:I64">
       <sortCondition ref="B4:B49"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H47">
+  <sortState ref="A5:H47">
     <sortCondition ref="B5:B47"/>
     <sortCondition ref="C5:C47"/>
   </sortState>
@@ -3486,11 +3497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3506,28 +3517,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -3747,10 +3758,10 @@
       <c r="C12" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="51" t="s">
         <v>185</v>
       </c>
       <c r="F12" s="21">
@@ -3773,12 +3784,8 @@
       <c r="C13" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="86" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>185</v>
-      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="21">
         <v>65000</v>
       </c>
@@ -4310,13 +4317,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I42">
+  <autoFilter ref="A4:H33"/>
+  <sortState ref="A5:I42">
     <sortCondition ref="B4"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.59" bottom="0.32" header="0.3" footer="0.3"/>
@@ -4325,7 +4334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4345,28 +4354,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
@@ -4603,7 +4612,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H12" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A4:H12"/>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
@@ -4615,11 +4624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102:E103"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="44.25" customHeight="1"/>
@@ -4635,29 +4644,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1"/>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -4799,10 +4808,10 @@
       <c r="C9" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="56" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="18">
@@ -4825,10 +4834,10 @@
       <c r="C10" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="56" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="18">
@@ -4851,10 +4860,10 @@
       <c r="C11" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="56" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="21">
@@ -4871,19 +4880,19 @@
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="68">
         <v>45261</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="83">
         <v>0.5053009259259259</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="74" t="s">
         <v>430</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="76" t="s">
         <v>431</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="89">
         <v>76000</v>
       </c>
       <c r="G12" s="37" t="s">
@@ -4975,19 +4984,19 @@
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="68">
         <v>45264</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="83">
         <v>0.53822916666666665</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="74" t="s">
         <v>433</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="76" t="s">
         <v>434</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="89">
         <v>295000</v>
       </c>
       <c r="G16" s="37" t="s">
@@ -5001,19 +5010,19 @@
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="68">
         <v>45264</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="83">
         <v>0.79569444444444448</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="76" t="s">
         <v>437</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="89">
         <v>70300</v>
       </c>
       <c r="G17" s="37" t="s">
@@ -5108,19 +5117,19 @@
       <c r="B21" s="35">
         <v>45265</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="69">
         <v>0.50571759259259264</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="74" t="s">
         <v>429</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="76" t="s">
         <v>431</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="88">
         <v>72000</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="90" t="s">
         <v>439</v>
       </c>
       <c r="H21" s="36" t="s">
@@ -5131,19 +5140,19 @@
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="68">
         <v>45265</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="83">
         <v>0.82293981481481471</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="89">
         <v>168000</v>
       </c>
       <c r="G22" s="37" t="s">
@@ -5235,19 +5244,19 @@
       <c r="A26" s="28">
         <v>22</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="68">
         <v>45266</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="83">
         <v>0.8655787037037036</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="86" t="s">
         <v>443</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="89">
         <v>298000</v>
       </c>
       <c r="G26" s="37" t="s">
@@ -5261,19 +5270,19 @@
       <c r="A27" s="28">
         <v>23</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="68">
         <v>45266</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="83">
         <v>0.76273148148148151</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="73" t="s">
         <v>433</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="76" t="s">
         <v>445</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="89">
         <v>450000</v>
       </c>
       <c r="G27" s="37" t="s">
@@ -5417,19 +5426,19 @@
       <c r="A33" s="28">
         <v>29</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="68">
         <v>45267</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="83">
         <v>0.50350694444444444</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="71" t="s">
         <v>490</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="76" t="s">
         <v>491</v>
       </c>
-      <c r="F33" s="78">
+      <c r="F33" s="89">
         <v>24000</v>
       </c>
       <c r="G33" s="37" t="s">
@@ -5443,22 +5452,22 @@
       <c r="A34" s="28">
         <v>30</v>
       </c>
-      <c r="B34" s="55">
+      <c r="B34" s="66">
         <v>45267</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="70">
         <v>0.50973379629629634</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="73" t="s">
         <v>448</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" s="76" t="s">
         <v>449</v>
       </c>
-      <c r="F34" s="69">
+      <c r="F34" s="80">
         <v>210000</v>
       </c>
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="82" t="s">
         <v>450</v>
       </c>
       <c r="H34" s="36" t="s">
@@ -5469,22 +5478,22 @@
       <c r="A35" s="28">
         <v>31</v>
       </c>
-      <c r="B35" s="55">
+      <c r="B35" s="66">
         <v>45267</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="70">
         <v>0.39068287037037036</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="73" t="s">
         <v>451</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="F35" s="69">
+      <c r="F35" s="80">
         <v>118500</v>
       </c>
-      <c r="G35" s="71" t="s">
+      <c r="G35" s="82" t="s">
         <v>453</v>
       </c>
       <c r="H35" s="36" t="s">
@@ -5547,22 +5556,22 @@
       <c r="A38" s="28">
         <v>34</v>
       </c>
-      <c r="B38" s="55">
+      <c r="B38" s="66">
         <v>45268</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="70">
         <v>0.52484953703703707</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="76" t="s">
         <v>454</v>
       </c>
-      <c r="F38" s="69">
+      <c r="F38" s="80">
         <v>84000</v>
       </c>
-      <c r="G38" s="71" t="s">
+      <c r="G38" s="82" t="s">
         <v>455</v>
       </c>
       <c r="H38" s="36" t="s">
@@ -5703,22 +5712,22 @@
       <c r="A44" s="28">
         <v>40</v>
       </c>
-      <c r="B44" s="55">
+      <c r="B44" s="66">
         <v>45271</v>
       </c>
-      <c r="C44" s="59">
+      <c r="C44" s="70">
         <v>0.82521990740740747</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="73" t="s">
         <v>430</v>
       </c>
-      <c r="E44" s="65" t="s">
+      <c r="E44" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="F44" s="69">
+      <c r="F44" s="80">
         <v>61000</v>
       </c>
-      <c r="G44" s="71" t="s">
+      <c r="G44" s="82" t="s">
         <v>457</v>
       </c>
       <c r="H44" s="36" t="s">
@@ -5729,22 +5738,22 @@
       <c r="A45" s="28">
         <v>41</v>
       </c>
-      <c r="B45" s="55">
+      <c r="B45" s="66">
         <v>45271</v>
       </c>
-      <c r="C45" s="59">
+      <c r="C45" s="70">
         <v>0.51579861111111114</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="71" t="s">
         <v>458</v>
       </c>
-      <c r="E45" s="65" t="s">
+      <c r="E45" s="76" t="s">
         <v>459</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F45" s="80">
         <v>188900</v>
       </c>
-      <c r="G45" s="71" t="s">
+      <c r="G45" s="82" t="s">
         <v>460</v>
       </c>
       <c r="H45" s="36" t="s">
@@ -5816,7 +5825,7 @@
       <c r="D48" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="57" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="21">
@@ -5842,7 +5851,7 @@
       <c r="D49" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="57" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="21">
@@ -5998,7 +6007,7 @@
       <c r="D55" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="21">
@@ -6024,7 +6033,7 @@
       <c r="D56" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="57" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="21">
@@ -6249,22 +6258,22 @@
       <c r="A65" s="28">
         <v>61</v>
       </c>
-      <c r="B65" s="55">
+      <c r="B65" s="66">
         <v>45278</v>
       </c>
-      <c r="C65" s="59">
+      <c r="C65" s="70">
         <v>0.48962962962962964</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="71" t="s">
         <v>490</v>
       </c>
-      <c r="E65" s="65" t="s">
+      <c r="E65" s="76" t="s">
         <v>492</v>
       </c>
-      <c r="F65" s="69">
+      <c r="F65" s="80">
         <v>116000</v>
       </c>
-      <c r="G65" s="71" t="s">
+      <c r="G65" s="82" t="s">
         <v>461</v>
       </c>
       <c r="H65" s="36" t="s">
@@ -6353,22 +6362,22 @@
       <c r="A69" s="28">
         <v>65</v>
       </c>
-      <c r="B69" s="55">
+      <c r="B69" s="66">
         <v>45279</v>
       </c>
-      <c r="C69" s="59">
+      <c r="C69" s="70">
         <v>0.50585648148148155</v>
       </c>
-      <c r="D69" s="63" t="s">
+      <c r="D69" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="E69" s="65" t="s">
+      <c r="E69" s="76" t="s">
         <v>481</v>
       </c>
-      <c r="F69" s="69">
+      <c r="F69" s="80">
         <v>89000</v>
       </c>
-      <c r="G69" s="71" t="s">
+      <c r="G69" s="82" t="s">
         <v>463</v>
       </c>
       <c r="H69" s="36" t="s">
@@ -6379,22 +6388,22 @@
       <c r="A70" s="28">
         <v>66</v>
       </c>
-      <c r="B70" s="55">
+      <c r="B70" s="66">
         <v>45279</v>
       </c>
-      <c r="C70" s="58">
+      <c r="C70" s="69">
         <v>0.44112268518518521</v>
       </c>
-      <c r="D70" s="60" t="s">
+      <c r="D70" s="71" t="s">
         <v>464</v>
       </c>
-      <c r="E70" s="65" t="s">
+      <c r="E70" s="76" t="s">
         <v>465</v>
       </c>
-      <c r="F70" s="67">
+      <c r="F70" s="78">
         <v>129600</v>
       </c>
-      <c r="G70" s="71" t="s">
+      <c r="G70" s="82" t="s">
         <v>446</v>
       </c>
       <c r="H70" s="36" t="s">
@@ -6509,22 +6518,22 @@
       <c r="A75" s="28">
         <v>71</v>
       </c>
-      <c r="B75" s="55">
+      <c r="B75" s="66">
         <v>45280</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="69">
         <v>0.604375</v>
       </c>
-      <c r="D75" s="60" t="s">
+      <c r="D75" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="E75" s="65" t="s">
+      <c r="E75" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="F75" s="67">
+      <c r="F75" s="78">
         <v>25200</v>
       </c>
-      <c r="G75" s="71" t="s">
+      <c r="G75" s="82" t="s">
         <v>467</v>
       </c>
       <c r="H75" s="36" t="s">
@@ -6535,22 +6544,22 @@
       <c r="A76" s="28">
         <v>72</v>
       </c>
-      <c r="B76" s="57">
+      <c r="B76" s="68">
         <v>45280</v>
       </c>
-      <c r="C76" s="58">
+      <c r="C76" s="69">
         <v>0.7758680555555556</v>
       </c>
-      <c r="D76" s="74" t="s">
+      <c r="D76" s="85" t="s">
         <v>468</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="58" t="s">
         <v>488</v>
       </c>
-      <c r="F76" s="67">
+      <c r="F76" s="78">
         <v>431900</v>
       </c>
-      <c r="G76" s="71" t="s">
+      <c r="G76" s="82" t="s">
         <v>469</v>
       </c>
       <c r="H76" s="36" t="s">
@@ -6561,22 +6570,22 @@
       <c r="A77" s="28">
         <v>73</v>
       </c>
-      <c r="B77" s="57">
+      <c r="B77" s="68">
         <v>45280</v>
       </c>
-      <c r="C77" s="58">
+      <c r="C77" s="69">
         <v>0.55717592592592591</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="E77" s="49" t="s">
+      <c r="E77" s="59" t="s">
         <v>471</v>
       </c>
-      <c r="F77" s="67">
+      <c r="F77" s="78">
         <v>380000</v>
       </c>
-      <c r="G77" s="71" t="s">
+      <c r="G77" s="82" t="s">
         <v>472</v>
       </c>
       <c r="H77" s="36" t="s">
@@ -6691,19 +6700,19 @@
       <c r="A82" s="28">
         <v>78</v>
       </c>
-      <c r="B82" s="57">
+      <c r="B82" s="68">
         <v>45281</v>
       </c>
-      <c r="C82" s="58">
+      <c r="C82" s="69">
         <v>0.5254861111111111</v>
       </c>
-      <c r="D82" s="64" t="s">
+      <c r="D82" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="E82" s="65" t="s">
+      <c r="E82" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="F82" s="70">
+      <c r="F82" s="81">
         <v>80000</v>
       </c>
       <c r="G82" s="37" t="s">
@@ -6717,22 +6726,22 @@
       <c r="A83" s="28">
         <v>79</v>
       </c>
-      <c r="B83" s="44">
+      <c r="B83" s="54">
         <v>45281</v>
       </c>
-      <c r="C83" s="45">
+      <c r="C83" s="55">
         <v>0.52348379629629627</v>
       </c>
-      <c r="D83" s="73" t="s">
+      <c r="D83" s="84" t="s">
         <v>474</v>
       </c>
-      <c r="E83" s="48" t="s">
+      <c r="E83" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="F83" s="53">
+      <c r="F83" s="63">
         <v>182000</v>
       </c>
-      <c r="G83" s="51" t="s">
+      <c r="G83" s="61" t="s">
         <v>476</v>
       </c>
       <c r="H83" s="36" t="s">
@@ -6743,22 +6752,22 @@
       <c r="A84" s="28">
         <v>80</v>
       </c>
-      <c r="B84" s="44">
+      <c r="B84" s="54">
         <v>45282</v>
       </c>
-      <c r="C84" s="45">
+      <c r="C84" s="55">
         <v>0.52135416666666667</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D84" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="E84" s="49" t="s">
+      <c r="E84" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="F84" s="53">
+      <c r="F84" s="63">
         <v>675000</v>
       </c>
-      <c r="G84" s="51" t="s">
+      <c r="G84" s="61" t="s">
         <v>479</v>
       </c>
       <c r="H84" s="36" t="s">
@@ -6769,22 +6778,22 @@
       <c r="A85" s="28">
         <v>81</v>
       </c>
-      <c r="B85" s="44">
+      <c r="B85" s="54">
         <v>45282</v>
       </c>
-      <c r="C85" s="45">
+      <c r="C85" s="55">
         <v>0.48321759259259256</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D85" s="62" t="s">
         <v>480</v>
       </c>
-      <c r="E85" s="49" t="s">
+      <c r="E85" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="F85" s="53">
+      <c r="F85" s="63">
         <v>86000</v>
       </c>
-      <c r="G85" s="51" t="s">
+      <c r="G85" s="61" t="s">
         <v>482</v>
       </c>
       <c r="H85" s="36" t="s">
@@ -6795,22 +6804,22 @@
       <c r="A86" s="28">
         <v>82</v>
       </c>
-      <c r="B86" s="56">
+      <c r="B86" s="67">
         <v>45286</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="D86" s="61" t="s">
+      <c r="D86" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="E86" s="66" t="s">
+      <c r="E86" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="68">
+      <c r="F86" s="79">
         <v>54000</v>
       </c>
-      <c r="G86" s="66" t="s">
+      <c r="G86" s="77" t="s">
         <v>26</v>
       </c>
       <c r="H86" s="36" t="s">
@@ -6821,22 +6830,22 @@
       <c r="A87" s="28">
         <v>83</v>
       </c>
-      <c r="B87" s="56">
+      <c r="B87" s="67">
         <v>45286</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="60" t="s">
         <v>381</v>
       </c>
-      <c r="D87" s="61" t="s">
+      <c r="D87" s="72" t="s">
         <v>389</v>
       </c>
-      <c r="E87" s="66" t="s">
+      <c r="E87" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="68">
+      <c r="F87" s="79">
         <v>138000</v>
       </c>
-      <c r="G87" s="66" t="s">
+      <c r="G87" s="77" t="s">
         <v>30</v>
       </c>
       <c r="H87" s="36" t="s">
@@ -6847,22 +6856,22 @@
       <c r="A88" s="28">
         <v>84</v>
       </c>
-      <c r="B88" s="56">
+      <c r="B88" s="67">
         <v>45286</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="D88" s="61" t="s">
+      <c r="D88" s="72" t="s">
         <v>390</v>
       </c>
-      <c r="E88" s="66" t="s">
+      <c r="E88" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="68">
+      <c r="F88" s="79">
         <v>160000</v>
       </c>
-      <c r="G88" s="66" t="s">
+      <c r="G88" s="77" t="s">
         <v>394</v>
       </c>
       <c r="H88" s="36" t="s">
@@ -6873,22 +6882,22 @@
       <c r="A89" s="28">
         <v>85</v>
       </c>
-      <c r="B89" s="56">
+      <c r="B89" s="67">
         <v>45286</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="D89" s="87" t="s">
+      <c r="D89" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="E89" s="87" t="s">
+      <c r="E89" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="68">
+      <c r="F89" s="79">
         <v>26900</v>
       </c>
-      <c r="G89" s="66" t="s">
+      <c r="G89" s="77" t="s">
         <v>395</v>
       </c>
       <c r="H89" s="36" t="s">
@@ -6899,22 +6908,18 @@
       <c r="A90" s="28">
         <v>86</v>
       </c>
-      <c r="B90" s="56">
+      <c r="B90" s="67">
         <v>45286</v>
       </c>
-      <c r="C90" s="50" t="s">
+      <c r="C90" s="60" t="s">
         <v>384</v>
       </c>
-      <c r="D90" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="E90" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="F90" s="68">
+      <c r="D90" s="50"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="79">
         <v>7800</v>
       </c>
-      <c r="G90" s="66" t="s">
+      <c r="G90" s="77" t="s">
         <v>395</v>
       </c>
       <c r="H90" s="36" t="s">
@@ -6925,22 +6930,22 @@
       <c r="A91" s="28">
         <v>87</v>
       </c>
-      <c r="B91" s="56">
+      <c r="B91" s="67">
         <v>45286</v>
       </c>
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="D91" s="61" t="s">
+      <c r="D91" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="E91" s="66" t="s">
+      <c r="E91" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="68">
+      <c r="F91" s="79">
         <v>140000</v>
       </c>
-      <c r="G91" s="66" t="s">
+      <c r="G91" s="77" t="s">
         <v>9</v>
       </c>
       <c r="H91" s="36" t="s">
@@ -6951,22 +6956,22 @@
       <c r="A92" s="28">
         <v>88</v>
       </c>
-      <c r="B92" s="44">
+      <c r="B92" s="54">
         <v>45286</v>
       </c>
-      <c r="C92" s="45">
+      <c r="C92" s="55">
         <v>0.54039351851851858</v>
       </c>
-      <c r="D92" s="52" t="s">
+      <c r="D92" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="E92" s="49" t="s">
+      <c r="E92" s="59" t="s">
         <v>465</v>
       </c>
-      <c r="F92" s="53">
+      <c r="F92" s="63">
         <v>139000</v>
       </c>
-      <c r="G92" s="51" t="s">
+      <c r="G92" s="61" t="s">
         <v>483</v>
       </c>
       <c r="H92" s="36" t="s">
@@ -6977,22 +6982,22 @@
       <c r="A93" s="28">
         <v>89</v>
       </c>
-      <c r="B93" s="44">
+      <c r="B93" s="54">
         <v>45286</v>
       </c>
-      <c r="C93" s="45">
+      <c r="C93" s="55">
         <v>0.6202199074074074</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="62" t="s">
         <v>484</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E93" s="59" t="s">
         <v>485</v>
       </c>
-      <c r="F93" s="53">
+      <c r="F93" s="63">
         <v>87900</v>
       </c>
-      <c r="G93" s="51" t="s">
+      <c r="G93" s="61" t="s">
         <v>486</v>
       </c>
       <c r="H93" s="36" t="s">
@@ -7003,22 +7008,22 @@
       <c r="A94" s="28">
         <v>90</v>
       </c>
-      <c r="B94" s="56">
+      <c r="B94" s="67">
         <v>45287</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="C94" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D94" s="61" t="s">
+      <c r="D94" s="72" t="s">
         <v>391</v>
       </c>
-      <c r="E94" s="66" t="s">
+      <c r="E94" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="68">
+      <c r="F94" s="79">
         <v>140000</v>
       </c>
-      <c r="G94" s="66" t="s">
+      <c r="G94" s="77" t="s">
         <v>9</v>
       </c>
       <c r="H94" s="36" t="s">
@@ -7029,22 +7034,22 @@
       <c r="A95" s="28">
         <v>91</v>
       </c>
-      <c r="B95" s="56">
+      <c r="B95" s="67">
         <v>45287</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="60" t="s">
         <v>386</v>
       </c>
-      <c r="D95" s="61" t="s">
+      <c r="D95" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="E95" s="66" t="s">
+      <c r="E95" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="68">
+      <c r="F95" s="79">
         <v>54000</v>
       </c>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="77" t="s">
         <v>394</v>
       </c>
       <c r="H95" s="36" t="s">
@@ -7055,22 +7060,22 @@
       <c r="A96" s="28">
         <v>92</v>
       </c>
-      <c r="B96" s="56">
+      <c r="B96" s="67">
         <v>45287</v>
       </c>
-      <c r="C96" s="50" t="s">
+      <c r="C96" s="60" t="s">
         <v>387</v>
       </c>
-      <c r="D96" s="61" t="s">
+      <c r="D96" s="72" t="s">
         <v>393</v>
       </c>
-      <c r="E96" s="66" t="s">
+      <c r="E96" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="68">
+      <c r="F96" s="79">
         <v>183000</v>
       </c>
-      <c r="G96" s="66" t="s">
+      <c r="G96" s="77" t="s">
         <v>10</v>
       </c>
       <c r="H96" s="36" t="s">
@@ -7081,22 +7086,22 @@
       <c r="A97" s="28">
         <v>93</v>
       </c>
-      <c r="B97" s="56">
+      <c r="B97" s="67">
         <v>45287</v>
       </c>
-      <c r="C97" s="50" t="s">
+      <c r="C97" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="D97" s="61" t="s">
+      <c r="D97" s="72" t="s">
         <v>419</v>
       </c>
-      <c r="E97" s="66" t="s">
+      <c r="E97" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="68">
+      <c r="F97" s="79">
         <v>86000</v>
       </c>
-      <c r="G97" s="66" t="s">
+      <c r="G97" s="77" t="s">
         <v>409</v>
       </c>
       <c r="H97" s="36" t="s">
@@ -7107,22 +7112,22 @@
       <c r="A98" s="28">
         <v>94</v>
       </c>
-      <c r="B98" s="44">
+      <c r="B98" s="54">
         <v>45287</v>
       </c>
-      <c r="C98" s="45">
+      <c r="C98" s="55">
         <v>0.5237384259259259</v>
       </c>
-      <c r="D98" s="52" t="s">
+      <c r="D98" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="F98" s="53">
+      <c r="F98" s="63">
         <v>356000</v>
       </c>
-      <c r="G98" s="51" t="s">
+      <c r="G98" s="61" t="s">
         <v>487</v>
       </c>
       <c r="H98" s="36" t="s">
@@ -7133,22 +7138,22 @@
       <c r="A99" s="28">
         <v>95</v>
       </c>
-      <c r="B99" s="44">
+      <c r="B99" s="54">
         <v>45287</v>
       </c>
-      <c r="C99" s="45">
+      <c r="C99" s="55">
         <v>0.59858796296296302</v>
       </c>
-      <c r="D99" s="52" t="s">
+      <c r="D99" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E99" s="59" t="s">
         <v>441</v>
       </c>
-      <c r="F99" s="53">
+      <c r="F99" s="63">
         <v>99000</v>
       </c>
-      <c r="G99" s="51" t="s">
+      <c r="G99" s="61" t="s">
         <v>486</v>
       </c>
       <c r="H99" s="36" t="s">
@@ -7159,22 +7164,22 @@
       <c r="A100" s="28">
         <v>96</v>
       </c>
-      <c r="B100" s="56">
+      <c r="B100" s="67">
         <v>45288</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="D100" s="61" t="s">
+      <c r="D100" s="72" t="s">
         <v>420</v>
       </c>
-      <c r="E100" s="66" t="s">
+      <c r="E100" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="68">
+      <c r="F100" s="79">
         <v>67000</v>
       </c>
-      <c r="G100" s="66" t="s">
+      <c r="G100" s="77" t="s">
         <v>410</v>
       </c>
       <c r="H100" s="36" t="s">
@@ -7185,22 +7190,22 @@
       <c r="A101" s="28">
         <v>97</v>
       </c>
-      <c r="B101" s="56">
+      <c r="B101" s="67">
         <v>45288</v>
       </c>
-      <c r="C101" s="50" t="s">
+      <c r="C101" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="D101" s="61" t="s">
+      <c r="D101" s="72" t="s">
         <v>421</v>
       </c>
-      <c r="E101" s="66" t="s">
+      <c r="E101" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="68">
+      <c r="F101" s="79">
         <v>87000</v>
       </c>
-      <c r="G101" s="66" t="s">
+      <c r="G101" s="77" t="s">
         <v>411</v>
       </c>
       <c r="H101" s="36" t="s">
@@ -7211,22 +7216,22 @@
       <c r="A102" s="28">
         <v>98</v>
       </c>
-      <c r="B102" s="56">
+      <c r="B102" s="67">
         <v>45288</v>
       </c>
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="60" t="s">
         <v>402</v>
       </c>
-      <c r="D102" s="87" t="s">
+      <c r="D102" s="91" t="s">
         <v>422</v>
       </c>
-      <c r="E102" s="87" t="s">
+      <c r="E102" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="68">
+      <c r="F102" s="79">
         <v>75000</v>
       </c>
-      <c r="G102" s="66" t="s">
+      <c r="G102" s="77" t="s">
         <v>412</v>
       </c>
       <c r="H102" s="36" t="s">
@@ -7237,22 +7242,18 @@
       <c r="A103" s="28">
         <v>99</v>
       </c>
-      <c r="B103" s="56">
+      <c r="B103" s="67">
         <v>45288</v>
       </c>
-      <c r="C103" s="50" t="s">
+      <c r="C103" s="60" t="s">
         <v>403</v>
       </c>
-      <c r="D103" s="87" t="s">
-        <v>422</v>
-      </c>
-      <c r="E103" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="68">
+      <c r="D103" s="50"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="79">
         <v>12500</v>
       </c>
-      <c r="G103" s="66" t="s">
+      <c r="G103" s="77" t="s">
         <v>413</v>
       </c>
       <c r="H103" s="36" t="s">
@@ -7263,22 +7264,22 @@
       <c r="A104" s="28">
         <v>100</v>
       </c>
-      <c r="B104" s="56">
+      <c r="B104" s="67">
         <v>45288</v>
       </c>
-      <c r="C104" s="50" t="s">
+      <c r="C104" s="60" t="s">
         <v>404</v>
       </c>
-      <c r="D104" s="61" t="s">
+      <c r="D104" s="72" t="s">
         <v>423</v>
       </c>
-      <c r="E104" s="66" t="s">
+      <c r="E104" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="F104" s="68">
+      <c r="F104" s="79">
         <v>80000</v>
       </c>
-      <c r="G104" s="66" t="s">
+      <c r="G104" s="77" t="s">
         <v>414</v>
       </c>
       <c r="H104" s="36" t="s">
@@ -7289,22 +7290,22 @@
       <c r="A105" s="28">
         <v>101</v>
       </c>
-      <c r="B105" s="56">
+      <c r="B105" s="67">
         <v>45288</v>
       </c>
-      <c r="C105" s="50" t="s">
+      <c r="C105" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="D105" s="61" t="s">
+      <c r="D105" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="E105" s="66" t="s">
+      <c r="E105" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="68">
+      <c r="F105" s="79">
         <v>71000</v>
       </c>
-      <c r="G105" s="66" t="s">
+      <c r="G105" s="77" t="s">
         <v>415</v>
       </c>
       <c r="H105" s="36" t="s">
@@ -7315,22 +7316,22 @@
       <c r="A106" s="28">
         <v>102</v>
       </c>
-      <c r="B106" s="56">
+      <c r="B106" s="67">
         <v>45288</v>
       </c>
-      <c r="C106" s="50" t="s">
+      <c r="C106" s="60" t="s">
         <v>406</v>
       </c>
-      <c r="D106" s="61" t="s">
+      <c r="D106" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E106" s="66" t="s">
+      <c r="E106" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="68">
+      <c r="F106" s="79">
         <v>43000</v>
       </c>
-      <c r="G106" s="66" t="s">
+      <c r="G106" s="77" t="s">
         <v>48</v>
       </c>
       <c r="H106" s="36" t="s">
@@ -7341,22 +7342,22 @@
       <c r="A107" s="28">
         <v>103</v>
       </c>
-      <c r="B107" s="56">
+      <c r="B107" s="67">
         <v>45288</v>
       </c>
-      <c r="C107" s="50" t="s">
+      <c r="C107" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="D107" s="61" t="s">
+      <c r="D107" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="E107" s="66" t="s">
+      <c r="E107" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F107" s="68">
+      <c r="F107" s="79">
         <v>412000</v>
       </c>
-      <c r="G107" s="66" t="s">
+      <c r="G107" s="77" t="s">
         <v>416</v>
       </c>
       <c r="H107" s="36" t="s">
@@ -7367,22 +7368,22 @@
       <c r="A108" s="28">
         <v>104</v>
       </c>
-      <c r="B108" s="56">
+      <c r="B108" s="67">
         <v>45288</v>
       </c>
-      <c r="C108" s="50" t="s">
+      <c r="C108" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="D108" s="61" t="s">
+      <c r="D108" s="72" t="s">
         <v>426</v>
       </c>
-      <c r="E108" s="66" t="s">
+      <c r="E108" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="68">
+      <c r="F108" s="79">
         <v>206000</v>
       </c>
-      <c r="G108" s="66" t="s">
+      <c r="G108" s="77" t="s">
         <v>417</v>
       </c>
       <c r="H108" s="36" t="s">
@@ -7393,22 +7394,22 @@
       <c r="A109" s="28">
         <v>105</v>
       </c>
-      <c r="B109" s="56" t="s">
+      <c r="B109" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="50" t="s">
+      <c r="C109" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="D109" s="61" t="s">
+      <c r="D109" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="E109" s="66" t="s">
+      <c r="E109" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="F109" s="68">
+      <c r="F109" s="79">
         <v>294000</v>
       </c>
-      <c r="G109" s="66" t="s">
+      <c r="G109" s="77" t="s">
         <v>378</v>
       </c>
       <c r="H109" s="36" t="s">
@@ -7416,16 +7417,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H4" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H109">
+  <autoFilter ref="A4:H4">
+    <sortState ref="A5:H109">
       <sortCondition ref="B4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H75">
+  <sortState ref="A5:H75">
     <sortCondition ref="B5:B75"/>
     <sortCondition ref="C5:C75"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
@@ -7436,10 +7441,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7457,29 +7462,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1"/>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
